--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:02:29+00:00</t>
+    <t>2024-02-21T15:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:17:25+00:00</t>
+    <t>2024-02-21T15:17:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:17:56+00:00</t>
+    <t>2024-02-21T15:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:23:52+00:00</t>
+    <t>2024-02-21T15:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:34:54+00:00</t>
+    <t>2024-03-18T15:36:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1109,7 +1109,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization-interne)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization)
 </t>
   </si>
   <si>
@@ -1605,7 +1605,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="238.8046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:36:21+00:00</t>
+    <t>2024-03-19T10:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T10:06:41+00:00</t>
+    <t>2024-03-19T10:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T10:26:28+00:00</t>
+    <t>2024-03-19T10:27:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T10:27:16+00:00</t>
+    <t>2024-03-19T10:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T10:46:18+00:00</t>
+    <t>2024-03-19T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T10:50:40+00:00</t>
+    <t>2024-03-19T13:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:55:26+00:00</t>
+    <t>2024-03-19T13:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:56:49+00:00</t>
+    <t>2024-03-19T16:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:30:14+00:00</t>
+    <t>2024-03-19T16:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:35:07+00:00</t>
+    <t>2024-03-19T16:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:37:00+00:00</t>
+    <t>2024-03-20T08:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T08:38:12+00:00</t>
+    <t>2024-04-02T16:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T16:00:04+00:00</t>
+    <t>2024-04-03T12:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T12:05:40+00:00</t>
+    <t>2024-04-16T11:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1109,7 +1109,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization)
 </t>
   </si>
   <si>
@@ -1605,7 +1605,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="238.8046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="233.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
